--- a/results/Midfielders_analysis.xlsx
+++ b/results/Midfielders_analysis.xlsx
@@ -38,7 +38,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -52,12 +52,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00228B22"/>
+        <fgColor rgb="00DC143C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DC143C"/>
+        <fgColor rgb="00228B22"/>
       </patternFill>
     </fill>
     <fill>
@@ -82,17 +82,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EED1D3"/>
+        <fgColor rgb="00DE5660"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A4C6B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0656F"/>
+        <fgColor rgb="00E0EBE4"/>
       </patternFill>
     </fill>
     <fill>
@@ -124,23 +119,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -602,27 +596,27 @@
         <v>4.254882032998533</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>6.333333333333333</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1236969169513672</v>
+        <v>-0.05536909615918346</v>
       </c>
       <c r="H2" t="n">
-        <v>1.737048316097057</v>
+        <v>1.60819424531872</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3029943292862766</v>
+        <v>-0.146492858755621</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3870476606806539</v>
-      </c>
-      <c r="K2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
+        <v>0.4441652170599477</v>
+      </c>
+      <c r="K2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>Very small</t>
         </is>
@@ -630,8 +624,8 @@
       <c r="M2" s="2" t="n">
         <v>12.5</v>
       </c>
-      <c r="N2" s="6" t="n">
-        <v>3.166666666666667</v>
+      <c r="N2" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -650,36 +644,36 @@
         <v>3.243989956713848</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2.666666666666667</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>2.285714285714286</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6381571663968937</v>
+        <v>-0.7555904464118185</v>
       </c>
       <c r="H3" t="n">
-        <v>1.324353354110369</v>
+        <v>1.226112954436575</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.563159433372769</v>
+        <v>-1.999104414221948</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08938929961640379</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
+        <v>0.04627054157368334</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>3.166666666666667</v>
+        <v>7.7</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -698,27 +692,27 @@
         <v>2.520047641176256</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3.714285714285714</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01044257618137764</v>
+        <v>-0.1238191175791926</v>
       </c>
       <c r="H4" t="n">
-        <v>1.028805141397697</v>
+        <v>0.9524884786553296</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02557898324451646</v>
+        <v>-0.3275945926700094</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4902913172561767</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
+        <v>0.3771734669037085</v>
+      </c>
+      <c r="K4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>Very small</t>
         </is>
@@ -726,7 +720,7 @@
       <c r="M4" s="2" t="n">
         <v>8.4</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -746,36 +740,36 @@
         <v>3.238021768190843</v>
       </c>
       <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>5.666666666666667</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.5282627598718042</v>
+        <v>0.6312062720519506</v>
       </c>
       <c r="H5" t="n">
-        <v>1.321916851348687</v>
+        <v>1.223857191206658</v>
       </c>
       <c r="I5" t="n">
-        <v>1.293974211800317</v>
+        <v>1.670014821833641</v>
       </c>
       <c r="J5" t="n">
-        <v>0.126108624145474</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="inlineStr">
+        <v>0.0729771728275128</v>
+      </c>
+      <c r="K5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="N5" s="9" t="n">
-        <v>3.333333333333333</v>
+        <v>7.2</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="6">
@@ -794,27 +788,27 @@
         <v>3.186926017071305</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>6.166666666666667</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>6.428571428571429</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6963758285338257</v>
+        <v>0.7785568269322275</v>
       </c>
       <c r="H6" t="n">
-        <v>1.301057098304168</v>
+        <v>1.204544812561751</v>
       </c>
       <c r="I6" t="n">
-        <v>1.705765449115743</v>
+        <v>2.059867745594229</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07438347642294021</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="inlineStr">
+        <v>0.04253601048153195</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
@@ -822,8 +816,8 @@
       <c r="M6" s="2" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="N6" s="6" t="n">
-        <v>3.166666666666667</v>
+      <c r="N6" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="7">
@@ -842,27 +836,27 @@
         <v>4.0964918098623</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.1666666666666667</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.1428571428571428</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9057814559414925</v>
+        <v>-0.9115936300930927</v>
       </c>
       <c r="H7" t="n">
-        <v>1.672385778275501</v>
+        <v>1.54832836810122</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.218702385531899</v>
+        <v>-2.41185004197693</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03862709507916062</v>
-      </c>
-      <c r="K7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10" t="inlineStr">
+        <v>0.026220811648435</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="inlineStr">
         <is>
           <t>Large</t>
         </is>
@@ -870,8 +864,8 @@
       <c r="M7" s="2" t="n">
         <v>10.2</v>
       </c>
-      <c r="N7" s="11" t="n">
-        <v>2.833333333333333</v>
+      <c r="N7" s="10" t="n">
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="8">
@@ -890,36 +884,36 @@
         <v>3.041673567936467</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>6.5</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>6.571428571428571</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8911299175435021</v>
+        <v>0.914613230211084</v>
       </c>
       <c r="H8" t="n">
-        <v>1.241758034259181</v>
+        <v>1.149644547171203</v>
       </c>
       <c r="I8" t="n">
-        <v>2.182813592510028</v>
+        <v>2.419839152947996</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04041283227370508</v>
-      </c>
-      <c r="K8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10" t="inlineStr">
+        <v>0.0259372357625665</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="inlineStr">
         <is>
           <t>Large</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>3</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="9">
@@ -938,36 +932,36 @@
         <v>3.052993307650314</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.666666666666667</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>3.428571428571428</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3591528436444795</v>
+        <v>-0.1095929248606583</v>
       </c>
       <c r="H9" t="n">
-        <v>1.246379298645856</v>
+        <v>1.153923006626749</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.8797412065985629</v>
+        <v>-0.28995562463349</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2096332826486209</v>
-      </c>
-      <c r="K9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12" t="inlineStr">
-        <is>
-          <t>Small</t>
+        <v>0.3908049826392022</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>Very small</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
         <v>6.3</v>
       </c>
-      <c r="N9" s="9" t="n">
-        <v>3.333333333333333</v>
+      <c r="N9" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="10">
@@ -986,36 +980,36 @@
         <v>2.975747379023985</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>3.833333333333333</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>5.285714285714286</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05600833855773468</v>
+        <v>0.5440810031322788</v>
       </c>
       <c r="H10" t="n">
-        <v>1.214843780338863</v>
+        <v>1.12472678992139</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1371918508074987</v>
+        <v>1.439503027362564</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4481162158908933</v>
-      </c>
-      <c r="K10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>Very small</t>
+        <v>0.1000342397129754</v>
+      </c>
+      <c r="K10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="N10" s="6" t="n">
-        <v>3.166666666666667</v>
+      <c r="N10" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="11">
@@ -1034,27 +1028,27 @@
         <v>3.329962586969465</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>3.714285714285714</v>
       </c>
       <c r="G11" t="n">
-        <v>0.115906681291564</v>
+        <v>0.03010563150430234</v>
       </c>
       <c r="H11" t="n">
-        <v>1.359451533438907</v>
+        <v>1.258607554324357</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2839122269437248</v>
+        <v>0.07965201402293536</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3939295057117316</v>
-      </c>
-      <c r="K11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
+        <v>0.4695521183487202</v>
+      </c>
+      <c r="K11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>Very small</t>
         </is>
@@ -1062,7 +1056,7 @@
       <c r="M11" s="2" t="n">
         <v>8.9</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1082,36 +1076,36 @@
         <v>3.527741765269702</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>5.666666666666667</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>5.142857142857143</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6017467146951353</v>
+        <v>0.453263759121011</v>
       </c>
       <c r="H12" t="n">
-        <v>1.440194544869326</v>
+        <v>1.333361057222804</v>
       </c>
       <c r="I12" t="n">
-        <v>1.473972405399209</v>
+        <v>1.19922318495248</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1002455331171725</v>
-      </c>
-      <c r="K12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="inlineStr">
-        <is>
-          <t>Medium</t>
+        <v>0.1378236780625797</v>
+      </c>
+      <c r="K12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
         <v>7.9</v>
       </c>
-      <c r="N12" s="8" t="n">
-        <v>3</v>
+      <c r="N12" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="13">
@@ -1130,36 +1124,36 @@
         <v>2.707683123315835</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>5.6</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>5.166666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7690915241960425</v>
+        <v>0.6090531025646843</v>
       </c>
       <c r="H13" t="n">
-        <v>1.105407006211543</v>
+        <v>1.023408024780048</v>
       </c>
       <c r="I13" t="n">
-        <v>1.883881799779686</v>
+        <v>1.61140304461847</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05914278333467521</v>
-      </c>
-      <c r="K13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7" t="inlineStr">
+        <v>0.07910904855933919</v>
+      </c>
+      <c r="K13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="N13" s="13" t="n">
-        <v>3.4</v>
+        <v>6.3</v>
+      </c>
+      <c r="N13" s="12" t="n">
+        <v>3.166666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -1178,36 +1172,36 @@
         <v>2.895701593620835</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>5.333333333333333</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>4.857142857142857</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6467541481724534</v>
+        <v>0.4823067903233182</v>
       </c>
       <c r="H14" t="n">
-        <v>1.18216522528919</v>
+        <v>1.094472326824878</v>
       </c>
       <c r="I14" t="n">
-        <v>1.584217652050896</v>
+        <v>1.276063822833274</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08699828695952179</v>
-      </c>
-      <c r="K14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="inlineStr">
-        <is>
-          <t>Medium</t>
+        <v>0.1245509421821516</v>
+      </c>
+      <c r="K14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>6.9</v>
       </c>
-      <c r="N14" s="6" t="n">
-        <v>3.166666666666667</v>
+      <c r="N14" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="15">
@@ -1226,36 +1220,36 @@
         <v>3.202172981983233</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>4.166666666666667</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>3.857142857142857</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2246281664548133</v>
+        <v>0.1279676139908083</v>
       </c>
       <c r="H15" t="n">
-        <v>1.307281645664225</v>
+        <v>1.210307623619678</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5502243896712576</v>
+        <v>0.3385704824899884</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3029209693513306</v>
-      </c>
-      <c r="K15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12" t="inlineStr">
-        <is>
-          <t>Small</t>
+        <v>0.373233581234662</v>
+      </c>
+      <c r="K15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>Very small</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>3.166666666666667</v>
+        <v>6.4</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="16">
@@ -1274,27 +1268,27 @@
         <v>3.133375285042238</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>1.666666666666667</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1.428571428571429</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5543038887024812</v>
+        <v>-0.6302907132720854</v>
       </c>
       <c r="H16" t="n">
-        <v>1.279195103500213</v>
+        <v>1.184304538351127</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.357761689761556</v>
+        <v>-1.667592480991456</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1162999640754746</v>
-      </c>
-      <c r="K16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="inlineStr">
+        <v>0.07322128002496231</v>
+      </c>
+      <c r="K16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
@@ -1302,8 +1296,8 @@
       <c r="M16" s="2" t="n">
         <v>6.6</v>
       </c>
-      <c r="N16" s="6" t="n">
-        <v>3.166666666666667</v>
+      <c r="N16" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="17">
@@ -1322,35 +1316,35 @@
         <v>3.53306294425226</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>4.333333333333333</v>
+        <v>7</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>3.714285714285714</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2731092810762162</v>
+        <v>0.09789371633381265</v>
       </c>
       <c r="H17" t="n">
-        <v>1.442366907092208</v>
+        <v>1.335372273832734</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6689783826550795</v>
+        <v>0.25900242833517</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2665754911621802</v>
-      </c>
-      <c r="K17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12" t="inlineStr">
-        <is>
-          <t>Small</t>
+        <v>0.4021450606515578</v>
+      </c>
+      <c r="K17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>Very small</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="N17" s="8" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="N17" s="7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1370,36 +1364,36 @@
         <v>2.859562580322795</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>5.5</v>
+        <v>7</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>4.857142857142857</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7546240644254466</v>
+        <v>0.5298144563823256</v>
       </c>
       <c r="H18" t="n">
-        <v>1.167411534891214</v>
+        <v>1.080813063708611</v>
       </c>
       <c r="I18" t="n">
-        <v>1.848443905467483</v>
+        <v>1.401757292594511</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0618980719315143</v>
-      </c>
-      <c r="K18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="inlineStr">
+        <v>0.1052708972960017</v>
+      </c>
+      <c r="K18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>3.166666666666667</v>
+        <v>6.6</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="19">
@@ -1418,36 +1412,36 @@
         <v>3.213125155517749</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>2.5</v>
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>2.142857142857143</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.253892840832326</v>
+        <v>-0.3650440845146808</v>
       </c>
       <c r="H19" t="n">
-        <v>1.311752851786555</v>
+        <v>1.214447156117957</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6219079093848646</v>
+        <v>-0.96581586520109</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2806293571570502</v>
-      </c>
-      <c r="K19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12" t="inlineStr">
+        <v>0.1857175458037973</v>
+      </c>
+      <c r="K19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="inlineStr">
         <is>
           <t>Small</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="N19" s="9" t="n">
-        <v>3.333333333333333</v>
+        <v>6.3</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="20">
@@ -1466,27 +1460,27 @@
         <v>3.61121998729175</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>4.666666666666667</v>
+        <v>7</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>4.285714285714286</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3910813261790601</v>
+        <v>0.2855900012824901</v>
       </c>
       <c r="H20" t="n">
-        <v>1.47427438630079</v>
+        <v>1.364912859417114</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9579496970696499</v>
+        <v>0.7556001203200863</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1910414132315428</v>
-      </c>
-      <c r="K20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12" t="inlineStr">
+        <v>0.2392461003322635</v>
+      </c>
+      <c r="K20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="inlineStr">
         <is>
           <t>Small</t>
         </is>
@@ -1494,8 +1488,8 @@
       <c r="M20" s="2" t="n">
         <v>7.6</v>
       </c>
-      <c r="N20" s="11" t="n">
-        <v>2.833333333333333</v>
+      <c r="N20" s="10" t="n">
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="21">
@@ -1514,27 +1508,27 @@
         <v>3.07038641334812</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>3.833333333333333</v>
+        <v>7</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>3.571428571428572</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1899869445739354</v>
+        <v>0.1046866837448216</v>
       </c>
       <c r="H21" t="n">
-        <v>1.253480004312842</v>
+        <v>1.160496982655813</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4653710719965709</v>
+        <v>0.2769749307688659</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3306156050860636</v>
-      </c>
-      <c r="K21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5" t="inlineStr">
+        <v>0.3955470658989948</v>
+      </c>
+      <c r="K21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>Very small</t>
         </is>
@@ -1542,8 +1536,8 @@
       <c r="M21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N21" s="8" t="n">
-        <v>3</v>
+      <c r="N21" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/results/Midfielders_analysis.xlsx
+++ b/results/Midfielders_analysis.xlsx
@@ -38,7 +38,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -52,17 +52,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00228B22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DC143C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00228B22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCECE6"/>
+        <fgColor rgb="0098D8C9"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,22 +77,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0098D8C9"/>
+        <fgColor rgb="00CCECE6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DE5660"/>
+        <fgColor rgb="0094BCA7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0EBE4"/>
+        <fgColor rgb="00F2F1F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="003A855E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0DDDE"/>
       </patternFill>
     </fill>
     <fill>
@@ -119,22 +124,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -596,36 +602,36 @@
         <v>4.254882032998533</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>5.571428571428571</v>
+        <v>7.2</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05536909615918346</v>
+        <v>0.3273845068646187</v>
       </c>
       <c r="H2" t="n">
-        <v>1.60819424531872</v>
+        <v>1.345511839960308</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.146492858755621</v>
+        <v>1.035280712343225</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4441652170599477</v>
-      </c>
-      <c r="K2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>Very small</t>
+        <v>0.1637765419615276</v>
+      </c>
+      <c r="K2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M2" s="2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>12.8</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -644,27 +650,27 @@
         <v>3.243989956713848</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>2.285714285714286</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.7</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.7555904464118185</v>
+        <v>-0.6278817543955877</v>
       </c>
       <c r="H3" t="n">
-        <v>1.226112954436575</v>
+        <v>1.025839696992679</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.999104414221948</v>
+        <v>-1.985536445152496</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04627054157368334</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="inlineStr">
+        <v>0.03917897574731685</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
@@ -672,8 +678,8 @@
       <c r="M3" s="2" t="n">
         <v>7.7</v>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>3.142857142857143</v>
+      <c r="N3" s="8" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
@@ -692,36 +698,36 @@
         <v>2.520047641176256</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>3.714285714285714</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1238191175791926</v>
+        <v>-0.2485333131167891</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9524884786553296</v>
+        <v>0.7969090358251693</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3275945926700094</v>
+        <v>-0.7859313438768551</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3771734669037085</v>
-      </c>
-      <c r="K4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Very small</t>
+        <v>0.2260512130464976</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>3</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -740,36 +746,36 @@
         <v>3.238021768190843</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>5.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6312062720519506</v>
+        <v>0.4150248964736429</v>
       </c>
       <c r="H5" t="n">
-        <v>1.223857191206658</v>
+        <v>1.023952390068882</v>
       </c>
       <c r="I5" t="n">
-        <v>1.670014821833641</v>
+        <v>1.312423958532295</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0729771728275128</v>
-      </c>
-      <c r="K5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
-          <t>Medium</t>
+        <v>0.1109293702660764</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>7.4</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -788,36 +794,36 @@
         <v>3.186926017071305</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>6.428571428571429</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>5.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7785568269322275</v>
+        <v>0.5185660319991017</v>
       </c>
       <c r="H6" t="n">
-        <v>1.204544812561751</v>
+        <v>1.007794494839398</v>
       </c>
       <c r="I6" t="n">
-        <v>2.059867745594229</v>
+        <v>1.63984977831292</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04253601048153195</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="inlineStr">
+        <v>0.0677286680873333</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>8.6</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -836,24 +842,24 @@
         <v>4.0964918098623</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0.1428571428571428</v>
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9115936300930927</v>
+        <v>-0.9220555435659732</v>
       </c>
       <c r="H7" t="n">
-        <v>1.54832836810122</v>
+        <v>1.295424453539028</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.41185004197693</v>
+        <v>-2.915795646853089</v>
       </c>
       <c r="J7" t="n">
-        <v>0.026220811648435</v>
-      </c>
-      <c r="K7" s="3" t="b">
+        <v>0.008574367717805634</v>
+      </c>
+      <c r="K7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="L7" s="9" t="inlineStr">
@@ -864,8 +870,8 @@
       <c r="M7" s="2" t="n">
         <v>10.2</v>
       </c>
-      <c r="N7" s="10" t="n">
-        <v>2.857142857142857</v>
+      <c r="N7" s="6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -884,24 +890,24 @@
         <v>3.041673567936467</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
-      </c>
-      <c r="F8" s="8" t="n">
-        <v>6.571428571428571</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>6.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.914613230211084</v>
+        <v>0.9568831930127315</v>
       </c>
       <c r="H8" t="n">
-        <v>1.149644547171203</v>
+        <v>0.9618616373410136</v>
       </c>
       <c r="I8" t="n">
-        <v>2.419839152947996</v>
+        <v>3.025930344654749</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0259372357625665</v>
-      </c>
-      <c r="K8" s="3" t="b">
+        <v>0.007170445845910563</v>
+      </c>
+      <c r="K8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="L8" s="9" t="inlineStr">
@@ -910,10 +916,10 @@
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>9.5</v>
+      </c>
+      <c r="N8" s="10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -932,36 +938,36 @@
         <v>3.052993307650314</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>3.428571428571428</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1095929248606583</v>
+        <v>-0.3154798578573108</v>
       </c>
       <c r="H9" t="n">
-        <v>1.153923006626749</v>
+        <v>0.9654412533426157</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.28995562463349</v>
+        <v>-0.9976349067352697</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3908049826392022</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>Very small</t>
+        <v>0.1722607545640037</v>
+      </c>
+      <c r="K9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>6.4</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
@@ -980,36 +986,36 @@
         <v>2.975747379023985</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>5.285714285714286</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5440810031322788</v>
+        <v>0.1792266833847508</v>
       </c>
       <c r="H10" t="n">
-        <v>1.12472678992139</v>
+        <v>0.9410139458992154</v>
       </c>
       <c r="I10" t="n">
-        <v>1.439503027362564</v>
+        <v>0.5667645369736686</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1000342397129754</v>
-      </c>
-      <c r="K10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="inlineStr">
-        <is>
-          <t>Medium</t>
+        <v>0.2923647951501203</v>
+      </c>
+      <c r="K10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="inlineStr">
+        <is>
+          <t>Very small</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>3.142857142857143</v>
+      <c r="N10" s="8" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="11">
@@ -1028,36 +1034,36 @@
         <v>3.329962586969465</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>3.714285714285714</v>
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03010563150430234</v>
+        <v>-0.1243362581127687</v>
       </c>
       <c r="H11" t="n">
-        <v>1.258607554324357</v>
+        <v>1.053026629797004</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07965201402293536</v>
+        <v>-0.3931857713789378</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4695521183487202</v>
-      </c>
-      <c r="K11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4" t="inlineStr">
+        <v>0.3516667873340178</v>
+      </c>
+      <c r="K11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="inlineStr">
         <is>
           <t>Very small</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="N11" s="7" t="n">
-        <v>3</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="12">
@@ -1076,36 +1082,36 @@
         <v>3.527741765269702</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>5.142857142857143</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>5.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.453263759121011</v>
+        <v>0.5828488839857011</v>
       </c>
       <c r="H12" t="n">
-        <v>1.333361057222804</v>
+        <v>1.115569897515534</v>
       </c>
       <c r="I12" t="n">
-        <v>1.19922318495248</v>
+        <v>1.843130005082054</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1378236780625797</v>
-      </c>
-      <c r="K12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11" t="inlineStr">
-        <is>
-          <t>Small</t>
+        <v>0.04921031485656226</v>
+      </c>
+      <c r="K12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>8.1</v>
+      </c>
+      <c r="N12" s="10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1124,36 +1130,36 @@
         <v>2.707683123315835</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>5.166666666666667</v>
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>4.111111111111111</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6090531025646843</v>
+        <v>0.2192159216677851</v>
       </c>
       <c r="H13" t="n">
-        <v>1.023408024780048</v>
+        <v>0.8562445851676608</v>
       </c>
       <c r="I13" t="n">
-        <v>1.61140304461847</v>
+        <v>0.6932216118432583</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07910904855933919</v>
-      </c>
-      <c r="K13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="inlineStr">
-        <is>
-          <t>Medium</t>
+        <v>0.2528323605161951</v>
+      </c>
+      <c r="K13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>6.3</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>3.166666666666667</v>
+        <v>3.222222222222222</v>
       </c>
     </row>
     <row r="14">
@@ -1172,36 +1178,36 @@
         <v>2.895701593620835</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" s="8" t="n">
-        <v>4.857142857142857</v>
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>5.8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4823067903233182</v>
+        <v>0.8079125588646058</v>
       </c>
       <c r="H14" t="n">
-        <v>1.094472326824878</v>
+        <v>0.9157012460021142</v>
       </c>
       <c r="I14" t="n">
-        <v>1.276063822833274</v>
+        <v>2.554843836267014</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1245509421821516</v>
-      </c>
-      <c r="K14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11" t="inlineStr">
-        <is>
-          <t>Small</t>
+        <v>0.015473910211661</v>
+      </c>
+      <c r="K14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>6.7</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="15">
@@ -1220,36 +1226,36 @@
         <v>3.202172981983233</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8" t="n">
-        <v>3.857142857142857</v>
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1279676139908083</v>
+        <v>-0.04602138044440076</v>
       </c>
       <c r="H15" t="n">
-        <v>1.210307623619678</v>
+        <v>1.012616008492034</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3385704824899884</v>
+        <v>-0.1455323832694385</v>
       </c>
       <c r="J15" t="n">
-        <v>0.373233581234662</v>
-      </c>
-      <c r="K15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4" t="inlineStr">
+        <v>0.4437489113035094</v>
+      </c>
+      <c r="K15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11" t="inlineStr">
         <is>
           <t>Very small</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>6.3</v>
+      </c>
+      <c r="N15" s="13" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -1268,36 +1274,36 @@
         <v>3.133375285042238</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>1.428571428571429</v>
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6302907132720854</v>
+        <v>-0.5117512669435028</v>
       </c>
       <c r="H16" t="n">
-        <v>1.184304538351127</v>
+        <v>0.9908602664812796</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.667592480991456</v>
+        <v>-1.618299599018304</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07322128002496231</v>
-      </c>
-      <c r="K16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="inlineStr">
+        <v>0.07002583847434005</v>
+      </c>
+      <c r="K16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>6.5</v>
+      </c>
+      <c r="N16" s="8" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
@@ -1316,35 +1322,35 @@
         <v>3.53306294425226</v>
       </c>
       <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.263674596820856</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.117252602057764</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8338122870804974</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2129812000971464</v>
+      </c>
+      <c r="K17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="8" t="n">
-        <v>3.714285714285714</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.09789371633381265</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.335372273832734</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.25900242833517</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4021450606515578</v>
-      </c>
-      <c r="K17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>Very small</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1364,36 +1370,36 @@
         <v>2.859562580322795</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>4.857142857142857</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5298144563823256</v>
+        <v>0.2300683123248313</v>
       </c>
       <c r="H18" t="n">
-        <v>1.080813063708611</v>
+        <v>0.9042730865608222</v>
       </c>
       <c r="I18" t="n">
-        <v>1.401757292594511</v>
+        <v>0.7275398843774554</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1052708972960017</v>
-      </c>
-      <c r="K18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6" t="inlineStr">
-        <is>
-          <t>Medium</t>
+        <v>0.2426950655795029</v>
+      </c>
+      <c r="K18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>6.5</v>
+      </c>
+      <c r="N18" s="13" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="19">
@@ -1412,36 +1418,36 @@
         <v>3.213125155517749</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>2.142857142857143</v>
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>1.5</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3650440845146808</v>
+        <v>-0.5651163231429193</v>
       </c>
       <c r="H19" t="n">
-        <v>1.214447156117957</v>
+        <v>1.016079389861883</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.96581586520109</v>
+        <v>-1.787054724071349</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1857175458037973</v>
-      </c>
-      <c r="K19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11" t="inlineStr">
-        <is>
-          <t>Small</t>
+        <v>0.05378532774402806</v>
+      </c>
+      <c r="K19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>6.2</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="20">
@@ -1460,27 +1466,27 @@
         <v>3.61121998729175</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" s="8" t="n">
-        <v>4.285714285714286</v>
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>4.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2855900012824901</v>
+        <v>0.2341629803954122</v>
       </c>
       <c r="H20" t="n">
-        <v>1.364912859417114</v>
+        <v>1.141968029176624</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7556001203200863</v>
+        <v>0.7404883617428581</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2392461003322635</v>
-      </c>
-      <c r="K20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11" t="inlineStr">
+        <v>0.2389380966473693</v>
+      </c>
+      <c r="K20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>Small</t>
         </is>
@@ -1488,8 +1494,8 @@
       <c r="M20" s="2" t="n">
         <v>7.6</v>
       </c>
-      <c r="N20" s="10" t="n">
-        <v>2.857142857142857</v>
+      <c r="N20" s="6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="21">
@@ -1508,27 +1514,27 @@
         <v>3.07038641334812</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>3.571428571428572</v>
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1046866837448216</v>
+        <v>0.04885378574758334</v>
       </c>
       <c r="H21" t="n">
-        <v>1.160496982655813</v>
+        <v>0.9709414363015274</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2769749307688659</v>
+        <v>0.1544892352842352</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3955470658989948</v>
-      </c>
-      <c r="K21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
+        <v>0.4403164792499059</v>
+      </c>
+      <c r="K21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="inlineStr">
         <is>
           <t>Very small</t>
         </is>
@@ -1536,8 +1542,8 @@
       <c r="M21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>3.142857142857143</v>
+      <c r="N21" s="10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
